--- a/Guia de Estudos/Guia de Estudos.xlsx
+++ b/Guia de Estudos/Guia de Estudos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Windows\Desktop\Arquivos\Guithub\Repositorios\2019\Guia de Estudos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABB517D4-4BCF-4DCC-8AA8-90C56C14B66F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{139B3149-6C04-4C6E-8D67-161F12D7681F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4470" xr2:uid="{C128929B-8A50-442E-ABA9-975C96F97268}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="48">
   <si>
     <t>Guia de estudo para chegar a minha meta</t>
   </si>
@@ -171,6 +171,9 @@
   </si>
   <si>
     <t>ASTAH COMUNITY</t>
+  </si>
+  <si>
+    <t>completo</t>
   </si>
 </sst>
 </file>
@@ -340,9 +343,6 @@
   </cellStyleXfs>
   <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -383,6 +383,9 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -703,285 +706,294 @@
   <dimension ref="A1:V20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" style="12" customWidth="1"/>
-    <col min="2" max="2" width="45.42578125" style="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="2.7109375" style="12" customWidth="1"/>
-    <col min="4" max="4" width="41.5703125" style="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="2.7109375" customWidth="1"/>
+    <col min="1" max="1" width="2.7109375" style="11" customWidth="1"/>
+    <col min="2" max="2" width="45.42578125" style="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.5703125" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="38.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="2.7109375" style="12" customWidth="1"/>
-    <col min="8" max="8" width="41.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2.7109375" style="11" customWidth="1"/>
+    <col min="8" max="8" width="41.5703125" style="13" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="2.7109375" customWidth="1"/>
     <col min="10" max="10" width="41.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="2.7109375" style="12" customWidth="1"/>
-    <col min="12" max="12" width="50.85546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="2.7109375" style="11" customWidth="1"/>
+    <col min="12" max="12" width="50.85546875" style="13" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="2.7109375" customWidth="1"/>
     <col min="14" max="14" width="59" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="2.7109375" style="12" customWidth="1"/>
-    <col min="16" max="16" width="37" style="19" customWidth="1"/>
-    <col min="17" max="17" width="2.7109375" style="12" customWidth="1"/>
-    <col min="18" max="18" width="41.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="2.7109375" style="11" customWidth="1"/>
+    <col min="16" max="16" width="37" style="18" customWidth="1"/>
+    <col min="17" max="17" width="2.7109375" style="11" customWidth="1"/>
+    <col min="18" max="18" width="41.5703125" style="13" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="2.7109375" customWidth="1"/>
     <col min="20" max="20" width="41.5703125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="2.7109375" style="12" customWidth="1"/>
-    <col min="22" max="22" width="42.28515625" style="14" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="2.7109375" style="11" customWidth="1"/>
+    <col min="22" max="22" width="42.28515625" style="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
-      <c r="U1" s="1"/>
-      <c r="V1" s="1"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
+      <c r="P1" s="23"/>
+      <c r="Q1" s="23"/>
+      <c r="R1" s="23"/>
+      <c r="S1" s="23"/>
+      <c r="T1" s="23"/>
+      <c r="U1" s="23"/>
+      <c r="V1" s="23"/>
     </row>
     <row r="2" spans="1:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
-      <c r="T2" s="1"/>
-      <c r="U2" s="1"/>
-      <c r="V2" s="1"/>
-    </row>
-    <row r="3" spans="1:22" s="9" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="7"/>
-      <c r="B3" s="8" t="s">
+      <c r="A2" s="23"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="23"/>
+      <c r="Q2" s="23"/>
+      <c r="R2" s="23"/>
+      <c r="S2" s="23"/>
+      <c r="T2" s="23"/>
+      <c r="U2" s="23"/>
+      <c r="V2" s="23"/>
+    </row>
+    <row r="3" spans="1:22" s="8" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6"/>
+      <c r="B3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="11" t="s">
+      <c r="C3" s="6"/>
+      <c r="D3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="8"/>
-      <c r="F3" s="10" t="s">
+      <c r="E3" s="7"/>
+      <c r="F3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="20"/>
-      <c r="H3" s="11" t="s">
+      <c r="G3" s="19"/>
+      <c r="H3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8" t="s">
+      <c r="I3" s="7"/>
+      <c r="J3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="K3" s="20"/>
-      <c r="L3" s="11" t="s">
+      <c r="K3" s="19"/>
+      <c r="L3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8" t="s">
+      <c r="M3" s="7"/>
+      <c r="N3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="O3" s="20"/>
-      <c r="P3" s="8" t="s">
+      <c r="O3" s="19"/>
+      <c r="P3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="Q3" s="20"/>
-      <c r="R3" s="11" t="s">
+      <c r="Q3" s="19"/>
+      <c r="R3" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="S3" s="8"/>
-      <c r="T3" s="8" t="s">
+      <c r="S3" s="7"/>
+      <c r="T3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="U3" s="7"/>
-      <c r="V3" s="11" t="s">
+      <c r="U3" s="6"/>
+      <c r="V3" s="10" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B4" s="16" t="s">
+      <c r="A4" s="11">
+        <v>15</v>
+      </c>
+      <c r="B4" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="C4" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="E4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="21" t="s">
+      <c r="H4" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="J4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="L4" s="21" t="s">
+      <c r="L4" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="N4" s="4" t="s">
+      <c r="N4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="P4" s="22" t="s">
+      <c r="P4" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="R4" s="21" t="s">
+      <c r="R4" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="T4" s="4" t="s">
+      <c r="T4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="V4" s="21" t="s">
+      <c r="V4" s="20" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B5" s="17"/>
-      <c r="J5" s="4" t="s">
+      <c r="B5" s="16"/>
+      <c r="J5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="L5" s="21" t="s">
+      <c r="L5" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="R5" s="21" t="s">
+      <c r="R5" s="20" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="J6" s="4" t="s">
+      <c r="J6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L6" s="21" t="s">
+      <c r="L6" s="20" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B7" s="18"/>
-      <c r="J7" s="2"/>
-      <c r="L7" s="21" t="s">
+      <c r="B7" s="17"/>
+      <c r="J7" s="1"/>
+      <c r="L7" s="20" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B8" s="18"/>
-      <c r="L8" s="21" t="s">
+      <c r="B8" s="17"/>
+      <c r="L8" s="20" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B9" s="18"/>
+      <c r="B9" s="17"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B10" s="18"/>
+      <c r="B10" s="17"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B11" s="18"/>
+      <c r="B11" s="17"/>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B12" s="18"/>
+      <c r="B12" s="17"/>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B13" s="18"/>
+      <c r="B13" s="17"/>
     </row>
     <row r="15" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:22" s="6" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="5"/>
-      <c r="B16" s="6" t="s">
+    <row r="16" spans="1:22" s="5" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="4"/>
+      <c r="B16" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="15" t="s">
+      <c r="C16" s="4"/>
+      <c r="D16" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="F16" s="6" t="s">
+      <c r="F16" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="G16" s="5"/>
-      <c r="H16" s="15" t="s">
+      <c r="G16" s="4"/>
+      <c r="H16" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="J16" s="6" t="s">
+      <c r="J16" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="K16" s="5"/>
-      <c r="L16" s="23" t="s">
+      <c r="K16" s="4"/>
+      <c r="L16" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="O16" s="5"/>
-      <c r="Q16" s="5"/>
-      <c r="R16" s="15"/>
-      <c r="U16" s="5"/>
-      <c r="V16" s="15"/>
+      <c r="O16" s="4"/>
+      <c r="Q16" s="4"/>
+      <c r="R16" s="14"/>
+      <c r="U16" s="4"/>
+      <c r="V16" s="14"/>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D17" s="21" t="s">
+      <c r="D17" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="F17" s="4" t="s">
+      <c r="F17" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="H17" s="21" t="s">
+      <c r="H17" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="J17" s="4" t="s">
+      <c r="J17" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="L17" s="4" t="s">
+      <c r="L17" s="3" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="I18" s="2"/>
-      <c r="J18" s="4" t="s">
+      <c r="I18" s="1"/>
+      <c r="J18" s="3" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="I19" s="2"/>
-      <c r="J19" s="4" t="s">
+      <c r="I19" s="1"/>
+      <c r="J19" s="3" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="I20" s="2"/>
-      <c r="J20" s="4" t="s">
+      <c r="I20" s="1"/>
+      <c r="J20" s="3" t="s">
         <v>43</v>
       </c>
     </row>
